--- a/lp.xlsx
+++ b/lp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周冠霖\Downloads\project-main\project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EB6762-0A10-4335-8C1E-6DB6DC8D8630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9EFCD-C3E3-45C4-9066-FD2A4CD744AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{92803D14-1DFB-4962-B946-100E5064DDB4}"/>
+    <workbookView xWindow="2085" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{92803D14-1DFB-4962-B946-100E5064DDB4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41FE6FF-7FCB-45B7-BC68-60896AAB4B2F}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -558,6 +558,234 @@
         <v>697</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>5.83</v>
+      </c>
+      <c r="C4">
+        <v>1052</v>
+      </c>
+      <c r="D4">
+        <v>4814</v>
+      </c>
+      <c r="E4">
+        <v>1304</v>
+      </c>
+      <c r="F4">
+        <v>158</v>
+      </c>
+      <c r="G4">
+        <v>775</v>
+      </c>
+      <c r="H4">
+        <v>368</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>776</v>
+      </c>
+      <c r="L4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>4.82</v>
+      </c>
+      <c r="C5">
+        <v>1062.2</v>
+      </c>
+      <c r="D5">
+        <v>4792</v>
+      </c>
+      <c r="E5">
+        <v>1263</v>
+      </c>
+      <c r="F5">
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <v>858</v>
+      </c>
+      <c r="H5">
+        <v>369</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>659</v>
+      </c>
+      <c r="L5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>5.37</v>
+      </c>
+      <c r="C6">
+        <v>1065.0999999999999</v>
+      </c>
+      <c r="D6">
+        <v>4816</v>
+      </c>
+      <c r="E6">
+        <v>1230</v>
+      </c>
+      <c r="F6">
+        <v>129</v>
+      </c>
+      <c r="G6">
+        <v>867</v>
+      </c>
+      <c r="H6">
+        <v>431</v>
+      </c>
+      <c r="I6">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>711</v>
+      </c>
+      <c r="L6">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>6.1</v>
+      </c>
+      <c r="C7">
+        <v>1054</v>
+      </c>
+      <c r="D7">
+        <v>4947</v>
+      </c>
+      <c r="E7">
+        <v>1372</v>
+      </c>
+      <c r="F7">
+        <v>155</v>
+      </c>
+      <c r="G7">
+        <v>831</v>
+      </c>
+      <c r="H7">
+        <v>439</v>
+      </c>
+      <c r="I7">
+        <v>54</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>838</v>
+      </c>
+      <c r="L7">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C8">
+        <v>1060.0999999999999</v>
+      </c>
+      <c r="D8">
+        <v>4835</v>
+      </c>
+      <c r="E8">
+        <v>1237</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>699</v>
+      </c>
+      <c r="H8">
+        <v>480</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>713</v>
+      </c>
+      <c r="L8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>3.73</v>
+      </c>
+      <c r="C9">
+        <v>1076.2</v>
+      </c>
+      <c r="D9">
+        <v>4670</v>
+      </c>
+      <c r="E9">
+        <v>1180</v>
+      </c>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>622</v>
+      </c>
+      <c r="H9">
+        <v>330</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>537</v>
+      </c>
+      <c r="L9">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
